--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_16.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15671.92323286848</v>
+        <v>29398.28137028664</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-96222.72558799725</v>
+        <v>-96222.72558799731</v>
       </c>
       <c r="F6" t="n">
         <v>36877.27441200275</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29398.28137028664</v>
+        <v>-128354.0142330962</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>13032122.60631173</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27752399.88113482</v>
+        <v>27307755.23053745</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1185715.841571525</v>
+        <v>1413091.695864743</v>
       </c>
     </row>
     <row r="11">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9579,7 +9579,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,25 +11457,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22646,7 +22646,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>126.8376266666667</v>
@@ -22673,7 +22673,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22883,7 +22883,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>126.8376266666667</v>
@@ -22907,10 +22907,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -23120,10 +23120,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23302,10 +23302,10 @@
         <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
         <v>193.8433399116564</v>
@@ -23357,13 +23357,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>61.18167021676314</v>
@@ -23384,7 +23384,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
         <v>165.0641745378389</v>
@@ -23594,7 +23594,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>93.17061249236157</v>
@@ -23621,7 +23621,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
         <v>165.0641745378389</v>
@@ -23779,7 +23779,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
         <v>193.8433399116564</v>
@@ -23831,7 +23831,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>93.17061249236157</v>
@@ -23855,10 +23855,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
         <v>165.0641745378389</v>
@@ -24068,7 +24068,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>93.17061249236157</v>
@@ -24095,7 +24095,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
         <v>165.0641745378389</v>
@@ -24150,10 +24150,10 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>90.4687457914608</v>
@@ -24171,7 +24171,7 @@
         <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
         <v>163.8605191622716</v>
@@ -24305,7 +24305,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>93.17061249236157</v>
@@ -24329,10 +24329,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
         <v>165.0641745378389</v>
@@ -24566,10 +24566,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
         <v>165.0641745378389</v>
@@ -24779,16 +24779,16 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>51.84373129681028</v>
@@ -24797,16 +24797,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
         <v>165.0641745378389</v>
@@ -24861,7 +24861,7 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>94.30397654773019</v>
@@ -25016,7 +25016,7 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>93.17061249236157</v>
@@ -25043,7 +25043,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25253,10 +25253,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>80.29914934735042</v>
@@ -25274,13 +25274,13 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
         <v>165.0641745378389</v>
@@ -25490,13 +25490,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>61.18167021676314</v>
@@ -25517,7 +25517,7 @@
         <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
         <v>165.0641745378389</v>
@@ -25727,34 +25727,34 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
         <v>165.0641745378389</v>
@@ -25827,10 +25827,10 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
         <v>163.8605191622716</v>
@@ -25897,7 +25897,7 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>110.5750244233121</v>
@@ -25964,10 +25964,10 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>80.29914934735042</v>
@@ -25988,10 +25988,10 @@
         <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
         <v>165.0641745378389</v>
@@ -26049,25 +26049,25 @@
         <v>105.873818686614</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
         <v>163.8605191622716</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-9.331415640190242e-12</v>
+        <v>4188.024600402496</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.331415640190242e-12</v>
+        <v>14723.05291811647</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.331415640190242e-12</v>
+        <v>13677.63592012166</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>136649.9919949123</v>
+        <v>177414.1554353432</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>136649.9919949123</v>
+        <v>140838.0165953148</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>136649.9919949123</v>
+        <v>157234.7337172515</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>136649.9919949123</v>
+        <v>149071.8799034884</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>136649.9919949123</v>
+        <v>147949.6607533978</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>136649.9919949123</v>
+        <v>147187.5970229953</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>136649.9919949123</v>
+        <v>169343.0698556631</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136649.9919949123</v>
+        <v>140838.0165953148</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>136649.9919949123</v>
+        <v>152811.7544101083</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>136649.9919949123</v>
+        <v>153893.3508713715</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>136649.9919949123</v>
+        <v>188845.2066224111</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>136649.9919949123</v>
+        <v>197481.45064178</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>943.7801916400015</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3317.871080138926</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3082.284151013335</v>
       </c>
       <c r="E2" t="n">
-        <v>40488.88651701107</v>
+        <v>49675.1768697842</v>
       </c>
       <c r="F2" t="n">
-        <v>40488.88651701107</v>
+        <v>41432.66670865105</v>
       </c>
       <c r="G2" t="n">
-        <v>40488.88651701107</v>
+        <v>45127.70155303115</v>
       </c>
       <c r="H2" t="n">
-        <v>40488.88651701107</v>
+        <v>43288.18520063381</v>
       </c>
       <c r="I2" t="n">
-        <v>40488.88651701107</v>
+        <v>43035.29074427539</v>
       </c>
       <c r="J2" t="n">
-        <v>40488.88651701107</v>
+        <v>42863.55807263539</v>
       </c>
       <c r="K2" t="n">
-        <v>40488.88651701107</v>
+        <v>47856.34068281407</v>
       </c>
       <c r="L2" t="n">
-        <v>40488.88651701107</v>
+        <v>41432.66670865105</v>
       </c>
       <c r="M2" t="n">
-        <v>40488.88651701107</v>
+        <v>44130.97382184394</v>
       </c>
       <c r="N2" t="n">
-        <v>40488.88651701107</v>
+        <v>44374.71386945257</v>
       </c>
       <c r="O2" t="n">
-        <v>40488.88651701107</v>
+        <v>52251.18840489814</v>
       </c>
       <c r="P2" t="n">
-        <v>40488.88651701107</v>
+        <v>54197.38424024884</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1002.766453617501</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3525.238022647609</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3274.926910451668</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9760.433499821482</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1002.766453617501</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4928.740975771358</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2974.254851349192</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2705.554491468362</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2523.088527850862</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7827.920051165696</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1002.766453617501</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3869.717761384946</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4128.691561969112</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12497.44575588002</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>14565.27883094016</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="E6" t="n">
-        <v>-96222.72558799731</v>
+        <v>-114218.2144272912</v>
       </c>
       <c r="F6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="G6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="H6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270882</v>
       </c>
       <c r="I6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270884</v>
       </c>
       <c r="J6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="K6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270884</v>
       </c>
       <c r="L6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="M6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
       <c r="N6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270884</v>
       </c>
       <c r="O6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270885</v>
       </c>
       <c r="P6" t="n">
-        <v>36877.27441200275</v>
+        <v>18881.78557270883</v>
       </c>
     </row>
   </sheetData>
